--- a/data/trans_orig/P14B35_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Habitat-trans_orig.xlsx
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>67,85%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>67,85%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>32,15%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>78,17%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>48,88%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>82,28%</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>52,21%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>52,21%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>77,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>47,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>77,6%</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,33%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>36,33%</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>63,67%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,47%</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1834,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14B35_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -805,7 +805,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>87,61%</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -942,12 +942,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>62,54%</t>
         </is>
       </c>
     </row>
@@ -990,12 +990,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>82,04%</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>47,61%</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1222,12 +1222,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>52,39%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>83,33%</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>52,5%</t>
         </is>
       </c>
     </row>
@@ -1412,12 +1412,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>77,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>77,47%</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>38,72%</t>
         </is>
       </c>
     </row>
@@ -1623,12 +1623,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>61,28%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>89,98%</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
     </row>
@@ -1834,12 +1834,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
     </row>
